--- a/biology/Zoologie/Colaciticus_johnstoni/Colaciticus_johnstoni.xlsx
+++ b/biology/Zoologie/Colaciticus_johnstoni/Colaciticus_johnstoni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colaciticus johnstoni est un insecte lépidoptère appartenant à la famille  des Riodinidae et au genre Colaciticus .
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Colaciticus johnstoni a été initialement décrite en 1904 par le lépidoptériste britannique Walter Dannatt (d) (1863-1940) sous le protonyme de Monethe johnstoni[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Colaciticus johnstoni a été initialement décrite en 1904 par le lépidoptériste britannique Walter Dannatt (d) (1863-1940) sous le protonyme de Monethe johnstoni.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Colaciticus johnstoni, un mâle aux ailes orange bordées de noir, présente une envergure de 38 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Colaciticus johnstoni, un mâle aux ailes orange bordées de noir, présente une envergure de 38 mm.
 </t>
         </is>
       </c>
@@ -574,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -599,12 +617,11 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chorinea johnstoni est présent en Guyana et au Brésil[2].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chorinea johnstoni est présent en Guyana et au Brésil.
 </t>
         </is>
       </c>
@@ -630,12 +647,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Étymologie</t>
+          <t>Écologie et distribution</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Son épithète spécifique, johnstoni, lui a été donnée en l'honneur d’Johnston (1858-1927), botaniste, écrivain et explorateur britannique[1].
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
@@ -661,10 +684,45 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, johnstoni, lui a été donnée en l'honneur d’Johnston (1858-1927), botaniste, écrivain et explorateur britannique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Colaciticus_johnstoni</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colaciticus_johnstoni</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>(en) Walter Dannatt, « Descriptions of Three New Butterflies », The Entomologist, Londres, Inconnu, vol. 37, no 494,‎ juillet 1904, p. 173-174 (ISSN 0013-8878, OCLC 7322611, lire en ligne)</t>
         </is>
